--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kng1-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kng1-Gp1ba.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.942633666666667</v>
+        <v>0.8229573333333334</v>
       </c>
       <c r="N2">
-        <v>8.827901000000001</v>
+        <v>2.468872</v>
       </c>
       <c r="O2">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="P2">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="Q2">
-        <v>1.335588836336222</v>
+        <v>0.3735200339857778</v>
       </c>
       <c r="R2">
-        <v>12.020299527026</v>
+        <v>3.361680305872</v>
       </c>
       <c r="S2">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="T2">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>4.395834</v>
       </c>
       <c r="O3">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="P3">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="Q3">
         <v>0.665053540676</v>
@@ -632,10 +632,10 @@
         <v>5.985481866084</v>
       </c>
       <c r="S3">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="T3">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.083678</v>
+        <v>1.083466</v>
       </c>
       <c r="N4">
-        <v>6.251034</v>
+        <v>3.250398</v>
       </c>
       <c r="O4">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="P4">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="Q4">
-        <v>0.9457300468093334</v>
+        <v>0.4917584919053333</v>
       </c>
       <c r="R4">
-        <v>8.511570421284</v>
+        <v>4.425826427147999</v>
       </c>
       <c r="S4">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="T4">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
     </row>
   </sheetData>
